--- a/ea3/pomiary.xlsx
+++ b/ea3/pomiary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>zasilanie napięciem wyprostowanym U=158V</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>zależność prędkości od wartości skutecznej napięcia</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>[rad/sec]</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -111,14 +120,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -131,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,61 +426,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L56"/>
+  <dimension ref="A4:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>5000</v>
       </c>
@@ -485,7 +494,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4900</v>
       </c>
@@ -499,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>4800</v>
       </c>
@@ -513,7 +522,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>4700</v>
       </c>
@@ -527,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>4500</v>
       </c>
@@ -541,7 +550,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4300</v>
       </c>
@@ -555,7 +564,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>3700</v>
       </c>
@@ -569,7 +578,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>3100</v>
       </c>
@@ -583,53 +592,69 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.14</v>
+      </c>
+      <c r="B20">
+        <f>C20*$A$20/30</f>
+        <v>523.33333333333337</v>
+      </c>
       <c r="C20">
         <v>5000</v>
       </c>
@@ -642,8 +667,39 @@
       <c r="F20">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>F20*E20</f>
+        <v>158.6</v>
+      </c>
+      <c r="H20">
+        <f>$M$20*E20*E20</f>
+        <v>4394</v>
+      </c>
+      <c r="I20">
+        <f>1.2*C20*C20*(1/1000000)+1.1*C20*(1/1000)</f>
+        <v>35.5</v>
+      </c>
+      <c r="J20">
+        <f>G20+H20+I20</f>
+        <v>4588.1000000000004</v>
+      </c>
+      <c r="K20">
+        <f>J20/B20</f>
+        <v>8.767070063694268</v>
+      </c>
+      <c r="L20">
+        <f>J20/D20</f>
+        <v>81.930357142857147</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" ref="B21:B27" si="0">C21*$A$20/30</f>
+        <v>512.86666666666667</v>
+      </c>
       <c r="C21">
         <v>4900</v>
       </c>
@@ -656,8 +712,36 @@
       <c r="F21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" ref="G21:G27" si="1">F21*E21</f>
+        <v>192</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="2">$M$20*E21*E21</f>
+        <v>6656</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I27" si="3">1.2*C21*C21*(1/1000000)+1.1*C21*(1/1000)</f>
+        <v>34.201999999999998</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J27" si="4">G21+H21+I21</f>
+        <v>6882.2020000000002</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K27" si="5">J21/B21</f>
+        <v>13.419086182243598</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L27" si="6">J21/D21</f>
+        <v>111.00325806451613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>502.4</v>
+      </c>
       <c r="C22">
         <v>4800</v>
       </c>
@@ -670,8 +754,36 @@
       <c r="F22">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>235.2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>11466</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>32.927999999999997</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>11734.128000000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>23.356146496815288</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>162.97400000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>481.46666666666664</v>
+      </c>
       <c r="C23">
         <v>4600</v>
       </c>
@@ -684,8 +796,36 @@
       <c r="F23">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>270.29999999999995</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>18258.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>30.451999999999998</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>18559.252</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>38.547324840764333</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>231.99065000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>460.53333333333336</v>
+      </c>
       <c r="C24">
         <v>4400</v>
       </c>
@@ -698,8 +838,36 @@
       <c r="F24">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>267.90000000000003</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>21118.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>28.071999999999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>21414.472000000002</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>46.499287782281414</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>254.93419047619051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>450.06666666666666</v>
+      </c>
       <c r="C25">
         <v>4300</v>
       </c>
@@ -712,8 +880,36 @@
       <c r="F25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>23400</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>26.917999999999999</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>23696.918000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>52.65201747889202</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>275.54555813953488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>429.13333333333333</v>
+      </c>
       <c r="C26">
         <v>4100</v>
       </c>
@@ -726,8 +922,36 @@
       <c r="F26">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>270.59999999999997</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>28314</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>24.682000000000002</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>28609.281999999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>66.667582724871835</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>317.88091111111112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>397.73333333333335</v>
+      </c>
       <c r="C27">
         <v>3800</v>
       </c>
@@ -740,54 +964,78 @@
       <c r="F27">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>255.6</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>33696</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>21.507999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>33973.108</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>85.416798524974851</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>357.61166315789472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>5000</v>
       </c>
@@ -801,7 +1049,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>4900</v>
       </c>
@@ -815,7 +1063,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>4800</v>
       </c>
@@ -829,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>4500</v>
       </c>
@@ -843,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>4300</v>
       </c>
@@ -857,7 +1105,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4000</v>
       </c>
@@ -871,7 +1119,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>3700</v>
       </c>
@@ -885,7 +1133,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>3200</v>
       </c>
@@ -899,7 +1147,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>3000</v>
       </c>
@@ -913,29 +1161,29 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>5000</v>
       </c>
@@ -943,7 +1191,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>4500</v>
       </c>
@@ -951,7 +1199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>4000</v>
       </c>
@@ -959,7 +1207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>3500</v>
       </c>
@@ -967,7 +1215,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>3000</v>
       </c>
@@ -975,7 +1223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>2500</v>
       </c>
@@ -983,7 +1231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>2000</v>
       </c>
@@ -991,7 +1239,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1500</v>
       </c>
@@ -1017,7 +1265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1029,7 +1277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
